--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2206_DLNguyenCuong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang6/2.XulyBH/XLBH2206_DLNguyenCuong.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="42" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="78">
   <si>
     <t>STT</t>
   </si>
@@ -250,6 +250,27 @@
   </si>
   <si>
     <t>Thiết bị lỗi GPS</t>
+  </si>
+  <si>
+    <t>Khách không sửa chữa thiết bị</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Thể</t>
+  </si>
+  <si>
+    <t>LE.3.00.---01.200923</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Thiết bị oxi hóa mạch</t>
+  </si>
+  <si>
+    <t>Không khắc phục được</t>
   </si>
 </sst>
 </file>
@@ -658,6 +679,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -675,30 +720,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1010,7 +1031,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1042,43 +1063,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1123,58 +1144,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -1199,23 +1220,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1225,7 +1246,9 @@
       <c r="B6" s="61">
         <v>44714</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44715</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
@@ -1244,16 +1267,28 @@
       <c r="K6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="L6" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1284,7 +1319,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1313,7 +1348,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1342,7 +1377,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1371,7 +1406,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1400,7 +1435,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1429,7 +1464,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1460,7 +1495,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1489,7 +1524,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1518,7 +1553,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1547,7 +1582,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1665,7 +1700,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2134,7 +2169,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2198,7 +2233,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2777,13 +2812,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2795,6 +2823,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2805,8 +2840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2838,43 +2873,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -2919,58 +2954,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -2995,23 +3030,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3021,7 +3056,9 @@
       <c r="B6" s="61">
         <v>44714</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44715</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>63</v>
       </c>
@@ -3045,15 +3082,25 @@
       <c r="L6" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>71</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3084,7 +3131,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3113,7 +3160,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3142,7 +3189,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3171,7 +3218,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3200,7 +3247,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3229,7 +3276,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3260,7 +3307,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3289,7 +3336,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3318,7 +3365,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3347,7 +3394,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3497,7 +3544,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -3710,7 +3757,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -3998,7 +4045,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -4116,7 +4163,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -4577,13 +4624,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4595,6 +4635,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4605,8 +4652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4638,43 +4685,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -4719,58 +4766,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -4795,23 +4842,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4821,7 +4868,9 @@
       <c r="B6" s="61">
         <v>44714</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44715</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>45</v>
       </c>
@@ -4834,18 +4883,30 @@
       </c>
       <c r="H6" s="48"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4876,7 +4937,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4905,7 +4966,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4934,7 +4995,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -4963,7 +5024,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4992,7 +5053,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5021,7 +5082,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5052,7 +5113,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5081,7 +5142,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5110,7 +5171,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5139,7 +5200,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5289,7 +5350,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -5598,7 +5659,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -5790,7 +5851,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -5908,7 +5969,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -6369,13 +6430,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6387,6 +6441,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6430,43 +6491,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -6511,58 +6572,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -6587,23 +6648,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="76"/>
       <c r="P5" s="82"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="81"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6629,7 +6690,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6660,7 +6721,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6689,7 +6750,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6718,7 +6779,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6747,7 +6808,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6776,7 +6837,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6805,7 +6866,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6836,7 +6897,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6865,7 +6926,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6894,7 +6955,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6923,7 +6984,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8154,13 +8215,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8172,6 +8226,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
